--- a/extra's/Opdracht-MoSCoW.xlsx
+++ b/extra's/Opdracht-MoSCoW.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordy Rutjens\Desktop\Proftaak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Njansen\Desktop\Proftaak documenten\extra's\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Must Haves</t>
   </si>
@@ -95,13 +95,10 @@
     <t>Ingame - Trading</t>
   </si>
   <si>
-    <t>Extra Arduino Features [Nordin]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flag Capture [ Jordy ] </t>
-  </si>
-  <si>
     <t>Boot Besturen  Met Arduino [ Nordin ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quests [ Jordy - Nordin] </t>
   </si>
 </sst>
 </file>
@@ -154,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +173,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -192,7 +195,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
@@ -201,12 +204,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -222,9 +226,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -262,7 +266,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -368,7 +372,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,18 +525,18 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -540,7 +544,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,11 +558,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
@@ -568,8 +572,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -579,8 +583,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -590,64 +594,62 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>